--- a/uploads/friday schedule.xlsx
+++ b/uploads/friday schedule.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985591CA-49E4-4E40-A6BF-BFFCE7C5CBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822BF7B-AEA8-4A44-870A-BD964887AB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -633,7 +646,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/uploads/friday schedule.xlsx
+++ b/uploads/friday schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethb\Documents\GitHub\nso_schedules\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87132455-1785-40A4-BF0E-16E55B9A3CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929E0CF-37EF-48E8-8A51-E22E853D3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9B1CDA0-05DD-4E1B-8A94-C23A40EA433C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E9B1CDA0-05DD-4E1B-8A94-C23A40EA433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1292,28 +1292,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD6B92-70A4-4E82-AB69-5ADAB2660FF8}">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="J216" workbookViewId="0">
+      <selection activeCell="L231" sqref="L231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="52.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="52.08984375" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="44.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="58.77734375" customWidth="1"/>
-    <col min="10" max="10" width="61.109375" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="44.21875" customWidth="1"/>
-    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="44.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.81640625" customWidth="1"/>
+    <col min="10" max="10" width="61.08984375" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="44.1796875" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>104</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>125</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>132</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>133</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>137</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>138</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>139</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>140</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>141</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>142</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>143</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>144</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>145</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>146</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>147</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>148</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>162</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>163</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>164</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>165</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>166</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>167</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>168</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>169</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>170</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>171</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>172</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>173</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>175</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>176</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>177</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>178</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>179</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>180</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>181</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>182</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>183</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>184</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>185</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>187</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>192</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>193</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>194</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>195</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>197</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>199</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>200</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>201</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>202</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>203</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>204</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>205</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>206</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>248</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>249</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>250</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>251</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>252</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>207</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>208</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>209</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>210</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>211</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>212</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>213</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>214</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>215</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>216</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>217</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>219</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>220</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>221</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>222</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>223</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>224</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>225</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>226</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>227</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>228</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>229</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>230</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>231</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>232</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>233</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>234</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>235</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>236</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>237</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>238</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>239</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>240</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>241</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>242</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>243</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>264</v>
       </c>
       <c r="G230" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H230" t="s">
         <v>266</v>
@@ -8748,13 +8748,13 @@
         <v>269</v>
       </c>
       <c r="L230" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M230" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>244</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>245</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>246</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>247</v>
       </c>

--- a/uploads/friday schedule.xlsx
+++ b/uploads/friday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929E0CF-37EF-48E8-8A51-E22E853D3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE262C3-8528-4CD1-8776-1F1F7DFD0562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E9B1CDA0-05DD-4E1B-8A94-C23A40EA433C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="274">
   <si>
     <t>Names</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>Help students check in for tours.</t>
+  </si>
+  <si>
+    <t>Parent and Family at the involvement fair.</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD6B92-70A4-4E82-AB69-5ADAB2660FF8}">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J216" workbookViewId="0">
-      <selection activeCell="L231" sqref="L231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,7 +1533,7 @@
         <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M9" t="s">
         <v>271</v>
@@ -1558,7 +1561,7 @@
         <v>269</v>
       </c>
       <c r="L10" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M10" t="s">
         <v>271</v>

--- a/uploads/friday schedule.xlsx
+++ b/uploads/friday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE262C3-8528-4CD1-8776-1F1F7DFD0562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC699A2A-B063-43F7-83C6-556905A75EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E9B1CDA0-05DD-4E1B-8A94-C23A40EA433C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="274">
   <si>
     <t>Names</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Kathryn Ricks</t>
   </si>
   <si>
-    <t>Dark Blue</t>
-  </si>
-  <si>
     <t>Tess Bayles</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>Raydon Diab</t>
   </si>
   <si>
-    <t>Briauna Anstine (Park)</t>
-  </si>
-  <si>
     <t>Isabella Costello</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>Taylor Hunt</t>
   </si>
   <si>
-    <t>Light Purple</t>
-  </si>
-  <si>
     <t>Sarai Espinoza</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>Cassi Bloomfield</t>
   </si>
   <si>
-    <t>Christina Smith(Miller)</t>
-  </si>
-  <si>
     <t>Ethan Jensen</t>
   </si>
   <si>
@@ -549,12 +537,6 @@
   </si>
   <si>
     <t>Shainah Chris Dioquino</t>
-  </si>
-  <si>
-    <t>Saleena Dockstader</t>
-  </si>
-  <si>
-    <t>Meagan Silver</t>
   </si>
   <si>
     <t>Henry Munoz</t>
@@ -868,6 +850,24 @@
   </si>
   <si>
     <t>Parent and Family at the involvement fair.</t>
+  </si>
+  <si>
+    <t>Briauna Park</t>
+  </si>
+  <si>
+    <t>Christina Smith</t>
+  </si>
+  <si>
+    <t>Meagan Gray</t>
+  </si>
+  <si>
+    <t>Letti Fuller</t>
+  </si>
+  <si>
+    <t>Saleena Christopherson</t>
+  </si>
+  <si>
+    <t>Olivia Alexander</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD6B92-70A4-4E82-AB69-5ADAB2660FF8}">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,34 +1327,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1364,19 +1364,19 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1386,19 +1386,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1408,19 +1408,19 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1430,19 +1430,19 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1452,19 +1452,19 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1474,19 +1474,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1496,19 +1496,19 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1518,25 +1518,25 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1546,25 +1546,25 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1576,28 +1576,28 @@
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1609,28 +1609,28 @@
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1642,28 +1642,28 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1675,28 +1675,28 @@
       </c>
       <c r="C14" s="2"/>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1708,28 +1708,28 @@
       </c>
       <c r="C15" s="2"/>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1741,28 +1741,28 @@
       </c>
       <c r="C16" s="2"/>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1774,28 +1774,28 @@
       </c>
       <c r="C17" s="2"/>
       <c r="E17" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I17" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M17" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1807,28 +1807,28 @@
       </c>
       <c r="C18" s="2"/>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L18" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M18" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1840,28 +1840,28 @@
       </c>
       <c r="C19" s="2"/>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1873,28 +1873,28 @@
       </c>
       <c r="C20" s="2"/>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K20" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1906,28 +1906,28 @@
       </c>
       <c r="C21" s="2"/>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1939,28 +1939,28 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1972,28 +1972,28 @@
       </c>
       <c r="C23" s="2"/>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -2005,28 +2005,28 @@
       </c>
       <c r="C24" s="2"/>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I24" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -2038,28 +2038,28 @@
       </c>
       <c r="C25" s="2"/>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -2071,28 +2071,28 @@
       </c>
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2104,28 +2104,28 @@
       </c>
       <c r="C27" s="2"/>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2137,28 +2137,28 @@
       </c>
       <c r="C28" s="2"/>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -2170,28 +2170,28 @@
       </c>
       <c r="C29" s="2"/>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2203,28 +2203,28 @@
       </c>
       <c r="C30" s="2"/>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2236,28 +2236,28 @@
       </c>
       <c r="C31" s="2"/>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2269,28 +2269,28 @@
       </c>
       <c r="C32" s="2"/>
       <c r="E32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2302,28 +2302,28 @@
       </c>
       <c r="C33" s="2"/>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2335,28 +2335,28 @@
       </c>
       <c r="C34" s="2"/>
       <c r="E34" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2368,28 +2368,28 @@
       </c>
       <c r="C35" s="2"/>
       <c r="E35" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H35" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -2401,28 +2401,28 @@
       </c>
       <c r="C36" s="2"/>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H36" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -2434,28 +2434,28 @@
       </c>
       <c r="C37" s="2"/>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H37" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -2467,28 +2467,28 @@
       </c>
       <c r="C38" s="2"/>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H38" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L38" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -2500,28 +2500,28 @@
       </c>
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -2533,28 +2533,28 @@
       </c>
       <c r="C40" s="2"/>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I40" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K40" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -2566,28 +2566,28 @@
       </c>
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I41" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K41" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L41" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M41" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -2599,28 +2599,28 @@
       </c>
       <c r="C42" s="2"/>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H42" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K42" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -2632,28 +2632,28 @@
       </c>
       <c r="C43" s="2"/>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H43" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K43" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -2665,28 +2665,28 @@
       </c>
       <c r="C44" s="2"/>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I44" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K44" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M44" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -2698,28 +2698,28 @@
       </c>
       <c r="C45" s="2"/>
       <c r="E45" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I45" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K45" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M45" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -2731,28 +2731,28 @@
       </c>
       <c r="C46" s="2"/>
       <c r="E46" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I46" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K46" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -2764,28 +2764,28 @@
       </c>
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I47" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -2797,28 +2797,28 @@
       </c>
       <c r="C48" s="2"/>
       <c r="E48" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I48" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K48" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2830,28 +2830,28 @@
       </c>
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H49" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I49" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K49" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M49" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -2863,28 +2863,28 @@
       </c>
       <c r="C50" s="2"/>
       <c r="E50" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I50" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L50" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M50" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2896,28 +2896,28 @@
       </c>
       <c r="C51" s="2"/>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G51" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K51" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L51" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M51" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -2929,28 +2929,28 @@
       </c>
       <c r="C52" s="2"/>
       <c r="E52" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I52" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K52" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L52" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M52" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -2962,28 +2962,28 @@
       </c>
       <c r="C53" s="2"/>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F53" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I53" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K53" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L53" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M53" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -2995,28 +2995,28 @@
       </c>
       <c r="C54" s="2"/>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G54" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H54" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K54" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L54" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M54" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3028,28 +3028,28 @@
       </c>
       <c r="C55" s="2"/>
       <c r="E55" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I55" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K55" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L55" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M55" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -3061,28 +3061,28 @@
       </c>
       <c r="C56" s="2"/>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I56" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K56" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L56" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M56" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3094,28 +3094,28 @@
       </c>
       <c r="C57" s="2"/>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F57" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I57" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K57" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L57" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M57" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -3127,28 +3127,28 @@
       </c>
       <c r="C58" s="2"/>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G58" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H58" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K58" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L58" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M58" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -3160,28 +3160,28 @@
       </c>
       <c r="C59" s="2"/>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H59" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K59" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M59" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -3193,28 +3193,28 @@
       </c>
       <c r="C60" s="2"/>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F60" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I60" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K60" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L60" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M60" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3226,28 +3226,28 @@
       </c>
       <c r="C61" s="2"/>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I61" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K61" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L61" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M61" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -3259,28 +3259,28 @@
       </c>
       <c r="C62" s="2"/>
       <c r="E62" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G62" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I62" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K62" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L62" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M62" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -3292,28 +3292,28 @@
       </c>
       <c r="C63" s="2"/>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G63" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H63" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I63" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K63" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L63" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M63" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -3325,28 +3325,28 @@
       </c>
       <c r="C64" s="2"/>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I64" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K64" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L64" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M64" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -3358,28 +3358,28 @@
       </c>
       <c r="C65" s="2"/>
       <c r="E65" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H65" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I65" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K65" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L65" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M65" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -3391,28 +3391,28 @@
       </c>
       <c r="C66" s="2"/>
       <c r="E66" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G66" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K66" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L66" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M66" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -3424,28 +3424,28 @@
       </c>
       <c r="C67" s="2"/>
       <c r="E67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G67" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H67" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I67" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K67" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L67" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M67" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -3457,28 +3457,28 @@
       </c>
       <c r="C68" s="2"/>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F68" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H68" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I68" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K68" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L68" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -3490,28 +3490,28 @@
       </c>
       <c r="C69" s="2"/>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F69" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H69" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I69" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K69" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M69" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -3519,5374 +3519,5440 @@
         <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F70" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H70" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I70" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K70" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L70" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M70" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H71" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I71" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L71" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M71" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H72" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K72" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L72" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M72" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2"/>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H73" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K73" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L73" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M73" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="2"/>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F74" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H74" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I74" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K74" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L74" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M74" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2"/>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I75" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K75" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L75" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M75" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F76" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H76" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I76" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K76" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L76" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M76" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H77" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I77" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K77" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L77" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M77" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H78" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I78" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K78" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L78" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M78" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H79" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I79" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K79" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L79" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G80" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K80" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L80" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M80" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I81" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K81" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L81" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M81" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I82" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K82" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L82" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M82" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G83" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I83" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K83" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L83" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M83" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H84" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I84" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L84" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M84" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H85" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I85" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K85" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L85" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M85" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2"/>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F86" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G86" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H86" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I86" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K86" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L86" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M86" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2"/>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G87" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H87" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I87" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K87" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L87" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M87" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2"/>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I88" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K88" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L88" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M88" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2"/>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F89" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H89" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I89" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K89" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M89" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2"/>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I90" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K90" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L90" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M90" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2"/>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H91" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I91" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K91" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L91" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M91" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2"/>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I92" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K92" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L92" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M92" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2"/>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G93" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I93" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K93" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L93" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M93" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2"/>
       <c r="E94" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G94" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I94" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K94" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L94" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M94" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2"/>
       <c r="E95" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F95" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I95" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K95" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L95" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M95" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2"/>
       <c r="E96" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H96" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I96" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K96" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L96" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M96" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C97" s="2"/>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G97" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H97" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I97" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K97" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L97" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M97" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C98" s="2"/>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G98" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H98" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I98" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K98" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L98" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M98" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C99" s="2"/>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G99" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I99" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K99" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L99" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M99" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C100" s="2"/>
       <c r="E100" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G100" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I100" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K100" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L100" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M100" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C101" s="2"/>
       <c r="E101" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H101" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I101" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K101" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L101" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M101" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C102" s="2"/>
       <c r="E102" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G102" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H102" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I102" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K102" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L102" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M102" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C103" s="2"/>
       <c r="E103" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G103" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H103" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I103" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K103" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L103" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M103" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C104" s="2"/>
       <c r="E104" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F104" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G104" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H104" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I104" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K104" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L104" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M104" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2"/>
       <c r="E105" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F105" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G105" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H105" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I105" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K105" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L105" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M105" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C106" s="2"/>
       <c r="E106" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F106" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G106" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H106" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I106" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K106" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L106" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M106" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C107" s="2"/>
       <c r="E107" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F107" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G107" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H107" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I107" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K107" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L107" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M107" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C108" s="2"/>
       <c r="E108" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G108" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H108" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I108" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K108" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L108" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M108" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C109" s="2"/>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F109" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H109" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I109" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K109" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L109" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M109" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C110" s="2"/>
       <c r="E110" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F110" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H110" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I110" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K110" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L110" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M110" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C111" s="2"/>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F111" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H111" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I111" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K111" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L111" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M111" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C112" s="2"/>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F112" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H112" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I112" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K112" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L112" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M112" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C113" s="2"/>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F113" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G113" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H113" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I113" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K113" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L113" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M113" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C114" s="2"/>
       <c r="E114" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G114" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H114" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I114" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K114" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L114" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M114" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C115" s="2"/>
       <c r="E115" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F115" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G115" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H115" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I115" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K115" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L115" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M115" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C116" s="2"/>
       <c r="E116" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F116" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G116" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H116" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I116" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K116" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L116" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M116" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C117" s="2"/>
       <c r="E117" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F117" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G117" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I117" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K117" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L117" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M117" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C118" s="2"/>
       <c r="E118" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F118" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G118" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H118" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K118" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L118" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M118" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C119" s="2"/>
       <c r="E119" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F119" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G119" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H119" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I119" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K119" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L119" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M119" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C120" s="2"/>
       <c r="E120" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F120" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G120" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H120" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I120" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K120" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L120" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M120" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C121" s="2"/>
       <c r="E121" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F121" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G121" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H121" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I121" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K121" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L121" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M121" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C122" s="2"/>
       <c r="E122" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F122" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G122" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H122" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I122" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K122" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L122" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M122" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C123" s="2"/>
       <c r="E123" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F123" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G123" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H123" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I123" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K123" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L123" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M123" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2"/>
       <c r="E124" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F124" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G124" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H124" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I124" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K124" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L124" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M124" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2"/>
       <c r="E125" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F125" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G125" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H125" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I125" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K125" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L125" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M125" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2"/>
       <c r="E126" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F126" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H126" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I126" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K126" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L126" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M126" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2"/>
       <c r="E127" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F127" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G127" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H127" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I127" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K127" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L127" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M127" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2"/>
       <c r="E128" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F128" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G128" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H128" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I128" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K128" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L128" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M128" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2"/>
       <c r="E129" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F129" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G129" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H129" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I129" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K129" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L129" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M129" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C130" s="2"/>
       <c r="E130" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G130" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H130" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I130" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K130" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L130" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M130" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C131" s="2"/>
       <c r="E131" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G131" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H131" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I131" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K131" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L131" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M131" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C132" s="2"/>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G132" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H132" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I132" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K132" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L132" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M132" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2"/>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G133" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H133" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I133" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K133" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L133" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M133" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2"/>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H134" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I134" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K134" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M134" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2"/>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G135" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H135" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K135" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L135" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M135" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2"/>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G136" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H136" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I136" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L136" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M136" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C137" s="2"/>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G137" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H137" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I137" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K137" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L137" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2"/>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G138" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K138" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L138" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M138" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C139" s="2"/>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G139" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H139" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I139" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K139" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L139" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M139" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2"/>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G140" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H140" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I140" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K140" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L140" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M140" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C141" s="2"/>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G141" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H141" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I141" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K141" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L141" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M141" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2"/>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G142" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H142" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I142" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K142" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L142" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M142" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2"/>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G143" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H143" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I143" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K143" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L143" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M143" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C144" s="2"/>
       <c r="E144" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G144" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H144" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I144" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K144" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L144" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M144" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C145" s="2"/>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G145" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H145" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I145" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K145" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L145" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M145" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2"/>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F146" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G146" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H146" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I146" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K146" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L146" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M146" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C147" s="2"/>
       <c r="E147" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G147" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H147" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I147" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K147" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L147" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M147" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C148" s="2"/>
       <c r="E148" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F148" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G148" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H148" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I148" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K148" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L148" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M148" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C149" s="2"/>
       <c r="E149" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F149" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G149" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H149" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I149" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K149" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L149" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M149" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C150" s="2"/>
       <c r="E150" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F150" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G150" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H150" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I150" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K150" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L150" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M150" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C151" s="2"/>
       <c r="E151" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F151" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G151" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H151" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I151" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K151" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L151" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M151" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C152" s="2"/>
       <c r="E152" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F152" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G152" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H152" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I152" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K152" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L152" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M152" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C153" s="2"/>
       <c r="E153" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F153" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G153" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H153" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I153" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K153" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L153" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M153" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2"/>
       <c r="E154" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F154" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G154" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H154" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I154" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K154" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L154" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M154" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2"/>
       <c r="E155" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G155" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H155" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I155" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K155" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L155" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M155" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C156" s="2"/>
       <c r="E156" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F156" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G156" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H156" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I156" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K156" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L156" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M156" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="2"/>
       <c r="E157" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F157" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G157" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H157" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I157" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K157" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L157" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M157" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2"/>
       <c r="E158" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F158" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G158" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H158" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I158" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K158" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L158" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M158" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2"/>
       <c r="E159" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F159" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G159" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H159" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I159" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K159" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L159" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M159" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C160" s="2"/>
       <c r="E160" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F160" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G160" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H160" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I160" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K160" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L160" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M160" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C161" s="2"/>
       <c r="E161" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F161" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G161" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H161" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I161" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K161" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L161" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M161" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C162" s="2"/>
       <c r="E162" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F162" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G162" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H162" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I162" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K162" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L162" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M162" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C163" s="2"/>
       <c r="E163" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F163" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G163" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H163" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I163" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K163" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L163" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M163" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C164" s="2"/>
       <c r="E164" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F164" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G164" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H164" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I164" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K164" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L164" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M164" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C165" s="2"/>
       <c r="E165" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F165" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G165" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H165" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I165" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K165" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L165" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M165" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C166" s="2"/>
       <c r="E166" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F166" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G166" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H166" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I166" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K166" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L166" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M166" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C167" s="2"/>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F167" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H167" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I167" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L167" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M167" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C168" s="2"/>
       <c r="E168" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F168" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H168" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I168" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K168" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L168" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M168" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C169" s="2"/>
       <c r="E169" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F169" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H169" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I169" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K169" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L169" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M169" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C170" s="2"/>
       <c r="E170" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F170" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H170" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I170" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K170" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L170" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M170" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C171" s="2"/>
       <c r="E171" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F171" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H171" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I171" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K171" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L171" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M171" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2"/>
       <c r="E172" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F172" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G172" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H172" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I172" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K172" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L172" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M172" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C173" s="2"/>
       <c r="E173" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F173" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G173" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H173" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I173" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K173" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L173" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M173" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C174" s="2"/>
       <c r="E174" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F174" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G174" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H174" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I174" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K174" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L174" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M174" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C175" s="2"/>
       <c r="E175" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F175" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G175" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H175" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I175" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K175" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L175" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M175" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C176" s="2"/>
       <c r="E176" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F176" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G176" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H176" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I176" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K176" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L176" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M176" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C177" s="2"/>
       <c r="E177" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F177" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G177" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H177" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I177" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K177" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L177" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M177" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C178" s="2"/>
       <c r="E178" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F178" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G178" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H178" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I178" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K178" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L178" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M178" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="C179" s="2"/>
       <c r="E179" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F179" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G179" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H179" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I179" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K179" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L179" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M179" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2"/>
       <c r="E180" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F180" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G180" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H180" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I180" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K180" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L180" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M180" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2"/>
       <c r="E181" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F181" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G181" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H181" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I181" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K181" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L181" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M181" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C182" s="2"/>
       <c r="E182" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F182" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G182" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H182" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I182" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K182" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L182" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M182" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C183" s="2"/>
       <c r="E183" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F183" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G183" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H183" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I183" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K183" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L183" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M183" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C184" s="2"/>
       <c r="E184" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F184" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G184" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H184" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I184" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K184" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L184" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M184" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C185" s="2"/>
       <c r="E185" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F185" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G185" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H185" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I185" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K185" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L185" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M185" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="C186" s="2"/>
       <c r="E186" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F186" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G186" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H186" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I186" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K186" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L186" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M186" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="C187" s="2"/>
       <c r="E187" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F187" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G187" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H187" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I187" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K187" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L187" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M187" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C188" s="2"/>
       <c r="E188" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F188" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G188" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H188" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I188" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K188" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L188" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M188" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C189" s="2"/>
       <c r="E189" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F189" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G189" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I189" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K189" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L189" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M189" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="C190" s="2"/>
       <c r="E190" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F190" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G190" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H190" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I190" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K190" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L190" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M190" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B191" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C191" s="2"/>
       <c r="E191" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F191" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G191" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H191" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="I191" t="s">
+        <v>261</v>
       </c>
       <c r="K191" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L191" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M191" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B192" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C192" s="2"/>
       <c r="E192" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F192" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G192" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H192" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="I192" t="s">
+        <v>261</v>
       </c>
       <c r="K192" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L192" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M192" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="E193" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F193" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G193" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H193" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K193" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L193" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M193" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="E194" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F194" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G194" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H194" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K194" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L194" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M194" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="E195" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F195" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G195" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H195" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K195" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L195" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M195" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="E196" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F196" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G196" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H196" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K196" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L196" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M196" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="E197" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F197" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G197" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H197" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K197" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L197" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M197" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="E198" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F198" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G198" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H198" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K198" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L198" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M198" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="E199" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F199" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G199" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H199" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K199" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L199" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M199" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="E200" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F200" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G200" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H200" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K200" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L200" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M200" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="E201" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F201" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G201" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H201" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K201" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L201" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M201" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="E202" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F202" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G202" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H202" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K202" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L202" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M202" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="E203" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F203" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G203" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H203" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K203" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L203" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M203" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="E204" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F204" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G204" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H204" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K204" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L204" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M204" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="E205" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F205" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G205" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H205" t="s">
-        <v>266</v>
-      </c>
-      <c r="J205" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K205" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L205" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M205" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="E206" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F206" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G206" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H206" t="s">
-        <v>266</v>
-      </c>
-      <c r="J206" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K206" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L206" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M206" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C207" s="2"/>
       <c r="E207" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F207" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G207" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H207" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J207" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K207" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L207" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M207" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C208" s="2"/>
       <c r="E208" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F208" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G208" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H208" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J208" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K208" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L208" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M208" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C209" s="2"/>
       <c r="E209" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F209" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G209" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H209" t="s">
+        <v>260</v>
+      </c>
+      <c r="J209" t="s">
+        <v>262</v>
+      </c>
+      <c r="K209" t="s">
+        <v>263</v>
+      </c>
+      <c r="L209" t="s">
         <v>266</v>
       </c>
-      <c r="J209" t="s">
-        <v>268</v>
-      </c>
-      <c r="K209" t="s">
-        <v>269</v>
-      </c>
-      <c r="L209" t="s">
-        <v>265</v>
-      </c>
       <c r="M209" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C210" s="2"/>
       <c r="E210" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F210" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G210" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H210" t="s">
+        <v>260</v>
+      </c>
+      <c r="J210" t="s">
+        <v>262</v>
+      </c>
+      <c r="K210" t="s">
+        <v>263</v>
+      </c>
+      <c r="L210" t="s">
         <v>266</v>
       </c>
-      <c r="J210" t="s">
-        <v>268</v>
-      </c>
-      <c r="K210" t="s">
-        <v>269</v>
-      </c>
-      <c r="L210" t="s">
-        <v>265</v>
-      </c>
       <c r="M210" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C211" s="2"/>
       <c r="E211" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F211" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G211" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H211" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J211" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K211" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L211" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M211" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C212" s="2"/>
       <c r="E212" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F212" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G212" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H212" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J212" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K212" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L212" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M212" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C213" s="2"/>
       <c r="E213" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F213" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G213" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H213" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J213" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K213" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L213" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M213" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C214" s="2"/>
       <c r="E214" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F214" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G214" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H214" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J214" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K214" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L214" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M214" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C215" s="2"/>
       <c r="E215" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F215" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G215" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H215" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J215" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K215" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L215" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M215" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C216" s="2"/>
       <c r="E216" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F216" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G216" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H216" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J216" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K216" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L216" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M216" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C217" s="2"/>
       <c r="E217" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F217" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G217" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H217" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J217" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K217" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L217" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M217" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C218" s="2"/>
       <c r="E218" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F218" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G218" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H218" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J218" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K218" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L218" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M218" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C219" s="2"/>
       <c r="E219" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F219" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G219" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H219" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J219" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K219" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L219" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M219" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C220" s="2"/>
       <c r="E220" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F220" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G220" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H220" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J220" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K220" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L220" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M220" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C221" s="2"/>
       <c r="E221" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F221" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G221" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H221" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J221" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K221" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L221" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M221" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C222" s="2"/>
       <c r="E222" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F222" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G222" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H222" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J222" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K222" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L222" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M222" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C223" s="2"/>
       <c r="E223" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F223" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G223" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H223" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J223" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K223" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L223" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M223" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C224" s="2"/>
       <c r="E224" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F224" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G224" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H224" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J224" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K224" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L224" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M224" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C225" s="2"/>
       <c r="E225" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F225" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G225" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H225" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J225" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K225" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L225" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M225" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C226" s="2"/>
       <c r="E226" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F226" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G226" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H226" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J226" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K226" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L226" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M226" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C227" s="2"/>
       <c r="E227" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F227" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G227" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H227" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J227" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K227" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L227" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M227" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C228" s="2"/>
       <c r="E228" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F228" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G228" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H228" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J228" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K228" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L228" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M228" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C229" s="2"/>
       <c r="E229" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F229" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G229" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H229" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J229" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K229" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L229" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M229" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C230" s="2"/>
       <c r="E230" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F230" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G230" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H230" t="s">
+        <v>260</v>
+      </c>
+      <c r="J230" t="s">
+        <v>262</v>
+      </c>
+      <c r="K230" t="s">
+        <v>263</v>
+      </c>
+      <c r="L230" t="s">
         <v>266</v>
       </c>
-      <c r="J230" t="s">
-        <v>268</v>
-      </c>
-      <c r="K230" t="s">
-        <v>269</v>
-      </c>
-      <c r="L230" t="s">
-        <v>272</v>
-      </c>
       <c r="M230" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C231" s="2"/>
       <c r="E231" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F231" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G231" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H231" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J231" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K231" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L231" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M231" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C232" s="2"/>
       <c r="E232" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F232" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G232" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H232" t="s">
+        <v>260</v>
+      </c>
+      <c r="J232" t="s">
+        <v>262</v>
+      </c>
+      <c r="K232" t="s">
+        <v>263</v>
+      </c>
+      <c r="L232" t="s">
         <v>266</v>
       </c>
-      <c r="J232" t="s">
-        <v>268</v>
-      </c>
-      <c r="K232" t="s">
-        <v>269</v>
-      </c>
-      <c r="L232" t="s">
-        <v>265</v>
-      </c>
       <c r="M232" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C233" s="2"/>
       <c r="E233" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F233" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G233" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H233" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J233" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K233" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L233" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M233" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A234" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C234" s="4"/>
+      <c r="A234" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="E234" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F234" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G234" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H234" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J234" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K234" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L234" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M234" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="E235" t="s">
+        <v>257</v>
+      </c>
+      <c r="F235" t="s">
+        <v>258</v>
+      </c>
+      <c r="G235" t="s">
+        <v>259</v>
+      </c>
+      <c r="H235" t="s">
+        <v>260</v>
+      </c>
+      <c r="J235" t="s">
+        <v>262</v>
+      </c>
+      <c r="K235" t="s">
+        <v>263</v>
+      </c>
+      <c r="L235" t="s">
+        <v>259</v>
+      </c>
+      <c r="M235" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A236" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="E236" t="s">
+        <v>257</v>
+      </c>
+      <c r="F236" t="s">
+        <v>258</v>
+      </c>
+      <c r="G236" t="s">
+        <v>259</v>
+      </c>
+      <c r="H236" t="s">
+        <v>260</v>
+      </c>
+      <c r="J236" t="s">
+        <v>262</v>
+      </c>
+      <c r="K236" t="s">
+        <v>263</v>
+      </c>
+      <c r="L236" t="s">
+        <v>259</v>
+      </c>
+      <c r="M236" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/friday schedule.xlsx
+++ b/uploads/friday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC699A2A-B063-43F7-83C6-556905A75EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A3608-3218-4185-8489-2E4C1BE43377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E9B1CDA0-05DD-4E1B-8A94-C23A40EA433C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="280">
   <si>
     <t>Names</t>
   </si>
@@ -868,6 +868,24 @@
   </si>
   <si>
     <t>Olivia Alexander</t>
+  </si>
+  <si>
+    <t>Attend Activities Showcase. No dilly dallying when getting back to the taylor for giving tours.</t>
+  </si>
+  <si>
+    <t>Meet Seth in the Biddulph Conference room 251 to help move "stuff". Return for tours after getting done.</t>
+  </si>
+  <si>
+    <t>Joey rolls.</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>Unload not suspicious "stuff" in the spori with Rozlynn. (Biddulph building)</t>
+  </si>
+  <si>
+    <t>Meet Rachel near mens restroom by NSO room in Biddulph to bring "the goods" to the taylor. Help there, and give tours if needed.</t>
   </si>
 </sst>
 </file>
@@ -963,7 +981,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -974,6 +1034,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2838ED-F62A-4696-B757-F007131E3A0E}" name="Table1" displayName="Table1" ref="A1:M236" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:M236" xr:uid="{7A2838ED-F62A-4696-B757-F007131E3A0E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4473D3B6-652E-41D3-BBE2-90D458C416C9}" name="Names" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{33F34E32-149A-457C-B45D-A592BE1CCFAF}" name="Color" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B95AD09F-6601-4774-81AE-A992D39AA8C1}" name="Group Number" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{39A7E355-D40B-495E-AA5F-D861FD68EE78}" name="Arrive_x000a_7:30 AM - 8:00 AM"/>
+    <tableColumn id="5" xr3:uid="{14F14A11-7447-4DB9-8BEF-F12D4CD6C809}" name="Arrive_x000a_8:15 AM - 8:30 AM"/>
+    <tableColumn id="6" xr3:uid="{FCA58F28-5922-4603-B9D9-839D3B2D3A98}" name="Set up and Prepare_x000a_8:30 AM - 9:00 AM"/>
+    <tableColumn id="7" xr3:uid="{F05DFCCC-0012-4E83-BB37-823E7C648D55}" name="Help Give Tours_x000a_9:00 AM - 1:00PM"/>
+    <tableColumn id="8" xr3:uid="{09E5D1BE-B097-4B06-8F5B-2BF306EE4727}" name="Lunch_x000a_1:00 PM - 1:45 PM"/>
+    <tableColumn id="9" xr3:uid="{BB1C873D-7503-4050-BB06-E28AE54EF7F7}" name="Attend President's Welcome_x000a_1:45 PM - 2:00 PM"/>
+    <tableColumn id="10" xr3:uid="{E21B7B9B-79F6-40DC-8199-51A569E417CC}" name="Usher for Presidents Welcome_x000a_1:45 PM - 2:00 PM"/>
+    <tableColumn id="11" xr3:uid="{E8F1E658-3BD3-4EC4-910F-76599C64EEF7}" name="Attend Activities Showcase_x000a_2:00 PM - 3:30 "/>
+    <tableColumn id="12" xr3:uid="{D76CC85C-90CC-459D-BA0D-781F315AA7AE}" name="Help Give Tours_x000a_3:30 PM - 5:00PM"/>
+    <tableColumn id="13" xr3:uid="{61B285B7-32B6-49A5-AA13-509167EAF5C1}" name="Take down/ clean up_x000a_5:00 PM - 5:30 PM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,15 +1377,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD6B92-70A4-4E82-AB69-5ADAB2660FF8}">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" customWidth="1"/>
     <col min="5" max="5" width="52.08984375" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
@@ -1524,7 +1606,7 @@
         <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H9" t="s">
         <v>260</v>
@@ -1552,7 +1634,7 @@
         <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H10" t="s">
         <v>260</v>
@@ -1582,7 +1664,7 @@
         <v>258</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
         <v>260</v>
@@ -1591,7 +1673,7 @@
         <v>261</v>
       </c>
       <c r="K11" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L11" t="s">
         <v>259</v>
@@ -1615,7 +1697,7 @@
         <v>258</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>260</v>
@@ -1624,7 +1706,7 @@
         <v>261</v>
       </c>
       <c r="K12" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L12" t="s">
         <v>259</v>
@@ -1648,7 +1730,7 @@
         <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -1657,7 +1739,7 @@
         <v>261</v>
       </c>
       <c r="K13" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L13" t="s">
         <v>259</v>
@@ -1690,7 +1772,7 @@
         <v>261</v>
       </c>
       <c r="K14" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L14" t="s">
         <v>259</v>
@@ -1723,7 +1805,7 @@
         <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L15" t="s">
         <v>259</v>
@@ -1756,7 +1838,7 @@
         <v>261</v>
       </c>
       <c r="K16" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L16" t="s">
         <v>259</v>
@@ -1789,7 +1871,7 @@
         <v>261</v>
       </c>
       <c r="K17" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L17" t="s">
         <v>259</v>
@@ -1822,7 +1904,7 @@
         <v>261</v>
       </c>
       <c r="K18" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L18" t="s">
         <v>259</v>
@@ -1855,7 +1937,7 @@
         <v>261</v>
       </c>
       <c r="K19" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L19" t="s">
         <v>259</v>
@@ -1888,7 +1970,7 @@
         <v>261</v>
       </c>
       <c r="K20" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L20" t="s">
         <v>259</v>
@@ -1921,7 +2003,7 @@
         <v>261</v>
       </c>
       <c r="K21" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L21" t="s">
         <v>259</v>
@@ -1954,7 +2036,7 @@
         <v>261</v>
       </c>
       <c r="K22" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L22" t="s">
         <v>259</v>
@@ -1987,7 +2069,7 @@
         <v>261</v>
       </c>
       <c r="K23" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L23" t="s">
         <v>259</v>
@@ -2020,7 +2102,7 @@
         <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s">
         <v>259</v>
@@ -2053,7 +2135,7 @@
         <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s">
         <v>259</v>
@@ -2086,7 +2168,7 @@
         <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
         <v>259</v>
@@ -2119,7 +2201,7 @@
         <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
         <v>259</v>
@@ -2152,7 +2234,7 @@
         <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
         <v>259</v>
@@ -2176,7 +2258,7 @@
         <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H29" t="s">
         <v>260</v>
@@ -2185,7 +2267,7 @@
         <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s">
         <v>259</v>
@@ -2209,7 +2291,7 @@
         <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H30" t="s">
         <v>260</v>
@@ -2218,7 +2300,7 @@
         <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s">
         <v>259</v>
@@ -2242,7 +2324,7 @@
         <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H31" t="s">
         <v>260</v>
@@ -2251,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s">
         <v>259</v>
@@ -2275,7 +2357,7 @@
         <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H32" t="s">
         <v>260</v>
@@ -2284,7 +2366,7 @@
         <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
         <v>259</v>
@@ -2308,7 +2390,7 @@
         <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H33" t="s">
         <v>260</v>
@@ -2317,7 +2399,7 @@
         <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
         <v>259</v>
@@ -2341,7 +2423,7 @@
         <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H34" t="s">
         <v>260</v>
@@ -2350,7 +2432,7 @@
         <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s">
         <v>259</v>
@@ -2374,7 +2456,7 @@
         <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H35" t="s">
         <v>260</v>
@@ -2383,7 +2465,7 @@
         <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s">
         <v>259</v>
@@ -2407,7 +2489,7 @@
         <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
         <v>260</v>
@@ -2416,7 +2498,7 @@
         <v>261</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
         <v>259</v>
@@ -2440,7 +2522,7 @@
         <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H37" t="s">
         <v>260</v>
@@ -2449,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="K37" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s">
         <v>259</v>
@@ -2473,7 +2555,7 @@
         <v>258</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -2482,7 +2564,7 @@
         <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s">
         <v>259</v>
@@ -2506,7 +2588,7 @@
         <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H39" t="s">
         <v>260</v>
@@ -2515,7 +2597,7 @@
         <v>261</v>
       </c>
       <c r="K39" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L39" t="s">
         <v>259</v>
@@ -2539,7 +2621,7 @@
         <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
         <v>260</v>
@@ -2548,7 +2630,7 @@
         <v>261</v>
       </c>
       <c r="K40" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
         <v>259</v>
@@ -2581,7 +2663,7 @@
         <v>261</v>
       </c>
       <c r="K41" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s">
         <v>259</v>
@@ -2614,7 +2696,7 @@
         <v>261</v>
       </c>
       <c r="K42" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L42" t="s">
         <v>259</v>
@@ -2647,7 +2729,7 @@
         <v>261</v>
       </c>
       <c r="K43" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s">
         <v>259</v>
@@ -2680,7 +2762,7 @@
         <v>261</v>
       </c>
       <c r="K44" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s">
         <v>259</v>
@@ -2713,7 +2795,7 @@
         <v>261</v>
       </c>
       <c r="K45" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L45" t="s">
         <v>259</v>
@@ -2746,7 +2828,7 @@
         <v>261</v>
       </c>
       <c r="K46" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s">
         <v>259</v>
@@ -2779,7 +2861,7 @@
         <v>261</v>
       </c>
       <c r="K47" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s">
         <v>259</v>
@@ -2812,7 +2894,7 @@
         <v>261</v>
       </c>
       <c r="K48" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s">
         <v>259</v>
@@ -2845,7 +2927,7 @@
         <v>261</v>
       </c>
       <c r="K49" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L49" t="s">
         <v>259</v>
@@ -2878,7 +2960,7 @@
         <v>261</v>
       </c>
       <c r="K50" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s">
         <v>259</v>
@@ -2911,7 +2993,7 @@
         <v>261</v>
       </c>
       <c r="K51" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L51" t="s">
         <v>259</v>
@@ -2944,7 +3026,7 @@
         <v>261</v>
       </c>
       <c r="K52" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s">
         <v>259</v>
@@ -2977,7 +3059,7 @@
         <v>261</v>
       </c>
       <c r="K53" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s">
         <v>259</v>
@@ -3010,7 +3092,7 @@
         <v>261</v>
       </c>
       <c r="K54" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s">
         <v>259</v>
@@ -3043,7 +3125,7 @@
         <v>261</v>
       </c>
       <c r="K55" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s">
         <v>259</v>
@@ -3076,7 +3158,7 @@
         <v>261</v>
       </c>
       <c r="K56" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s">
         <v>259</v>
@@ -3109,7 +3191,7 @@
         <v>261</v>
       </c>
       <c r="K57" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s">
         <v>259</v>
@@ -3142,7 +3224,7 @@
         <v>261</v>
       </c>
       <c r="K58" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s">
         <v>259</v>
@@ -3175,7 +3257,7 @@
         <v>261</v>
       </c>
       <c r="K59" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L59" t="s">
         <v>259</v>
@@ -3208,7 +3290,7 @@
         <v>261</v>
       </c>
       <c r="K60" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L60" t="s">
         <v>259</v>
@@ -3241,7 +3323,7 @@
         <v>261</v>
       </c>
       <c r="K61" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L61" t="s">
         <v>259</v>
@@ -3274,7 +3356,7 @@
         <v>261</v>
       </c>
       <c r="K62" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s">
         <v>259</v>
@@ -3307,7 +3389,7 @@
         <v>261</v>
       </c>
       <c r="K63" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L63" t="s">
         <v>259</v>
@@ -3340,7 +3422,7 @@
         <v>261</v>
       </c>
       <c r="K64" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L64" t="s">
         <v>259</v>
@@ -3373,7 +3455,7 @@
         <v>261</v>
       </c>
       <c r="K65" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L65" t="s">
         <v>259</v>
@@ -3406,7 +3488,7 @@
         <v>261</v>
       </c>
       <c r="K66" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L66" t="s">
         <v>259</v>
@@ -3439,7 +3521,7 @@
         <v>261</v>
       </c>
       <c r="K67" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L67" t="s">
         <v>259</v>
@@ -3472,7 +3554,7 @@
         <v>261</v>
       </c>
       <c r="K68" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L68" t="s">
         <v>259</v>
@@ -3505,7 +3587,7 @@
         <v>261</v>
       </c>
       <c r="K69" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L69" t="s">
         <v>259</v>
@@ -3538,7 +3620,7 @@
         <v>261</v>
       </c>
       <c r="K70" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L70" t="s">
         <v>259</v>
@@ -3571,7 +3653,7 @@
         <v>261</v>
       </c>
       <c r="K71" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L71" t="s">
         <v>259</v>
@@ -3604,7 +3686,7 @@
         <v>261</v>
       </c>
       <c r="K72" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L72" t="s">
         <v>259</v>
@@ -3637,7 +3719,7 @@
         <v>261</v>
       </c>
       <c r="K73" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L73" t="s">
         <v>259</v>
@@ -3670,7 +3752,7 @@
         <v>261</v>
       </c>
       <c r="K74" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L74" t="s">
         <v>259</v>
@@ -3703,7 +3785,7 @@
         <v>261</v>
       </c>
       <c r="K75" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L75" t="s">
         <v>259</v>
@@ -3736,7 +3818,7 @@
         <v>261</v>
       </c>
       <c r="K76" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L76" t="s">
         <v>259</v>
@@ -3769,7 +3851,7 @@
         <v>261</v>
       </c>
       <c r="K77" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L77" t="s">
         <v>259</v>
@@ -3802,7 +3884,7 @@
         <v>261</v>
       </c>
       <c r="K78" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L78" t="s">
         <v>259</v>
@@ -3835,7 +3917,7 @@
         <v>261</v>
       </c>
       <c r="K79" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L79" t="s">
         <v>259</v>
@@ -3868,7 +3950,7 @@
         <v>261</v>
       </c>
       <c r="K80" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L80" t="s">
         <v>259</v>
@@ -3901,7 +3983,7 @@
         <v>261</v>
       </c>
       <c r="K81" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L81" t="s">
         <v>259</v>
@@ -3934,7 +4016,7 @@
         <v>261</v>
       </c>
       <c r="K82" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L82" t="s">
         <v>259</v>
@@ -3967,7 +4049,7 @@
         <v>261</v>
       </c>
       <c r="K83" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L83" t="s">
         <v>259</v>
@@ -4000,7 +4082,7 @@
         <v>261</v>
       </c>
       <c r="K84" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L84" t="s">
         <v>259</v>
@@ -4033,7 +4115,7 @@
         <v>261</v>
       </c>
       <c r="K85" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L85" t="s">
         <v>259</v>
@@ -4066,7 +4148,7 @@
         <v>261</v>
       </c>
       <c r="K86" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L86" t="s">
         <v>259</v>
@@ -4099,7 +4181,7 @@
         <v>261</v>
       </c>
       <c r="K87" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L87" t="s">
         <v>259</v>
@@ -4132,7 +4214,7 @@
         <v>261</v>
       </c>
       <c r="K88" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L88" t="s">
         <v>259</v>
@@ -4165,7 +4247,7 @@
         <v>261</v>
       </c>
       <c r="K89" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L89" t="s">
         <v>259</v>
@@ -4198,7 +4280,7 @@
         <v>261</v>
       </c>
       <c r="K90" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L90" t="s">
         <v>259</v>
@@ -4231,7 +4313,7 @@
         <v>261</v>
       </c>
       <c r="K91" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L91" t="s">
         <v>259</v>
@@ -4264,7 +4346,7 @@
         <v>261</v>
       </c>
       <c r="K92" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L92" t="s">
         <v>259</v>
@@ -4297,7 +4379,7 @@
         <v>261</v>
       </c>
       <c r="K93" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L93" t="s">
         <v>259</v>
@@ -4330,7 +4412,7 @@
         <v>261</v>
       </c>
       <c r="K94" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L94" t="s">
         <v>259</v>
@@ -4363,7 +4445,7 @@
         <v>261</v>
       </c>
       <c r="K95" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L95" t="s">
         <v>259</v>
@@ -4396,7 +4478,7 @@
         <v>261</v>
       </c>
       <c r="K96" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L96" t="s">
         <v>259</v>
@@ -4429,7 +4511,7 @@
         <v>261</v>
       </c>
       <c r="K97" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L97" t="s">
         <v>259</v>
@@ -4462,7 +4544,7 @@
         <v>261</v>
       </c>
       <c r="K98" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L98" t="s">
         <v>259</v>
@@ -4495,7 +4577,7 @@
         <v>261</v>
       </c>
       <c r="K99" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L99" t="s">
         <v>259</v>
@@ -4528,7 +4610,7 @@
         <v>261</v>
       </c>
       <c r="K100" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L100" t="s">
         <v>259</v>
@@ -4561,7 +4643,7 @@
         <v>261</v>
       </c>
       <c r="K101" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L101" t="s">
         <v>259</v>
@@ -4594,7 +4676,7 @@
         <v>261</v>
       </c>
       <c r="K102" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L102" t="s">
         <v>259</v>
@@ -4627,7 +4709,7 @@
         <v>261</v>
       </c>
       <c r="K103" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L103" t="s">
         <v>259</v>
@@ -4660,7 +4742,7 @@
         <v>261</v>
       </c>
       <c r="K104" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L104" t="s">
         <v>259</v>
@@ -4693,7 +4775,7 @@
         <v>261</v>
       </c>
       <c r="K105" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s">
         <v>259</v>
@@ -4726,7 +4808,7 @@
         <v>261</v>
       </c>
       <c r="K106" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L106" t="s">
         <v>259</v>
@@ -4759,7 +4841,7 @@
         <v>261</v>
       </c>
       <c r="K107" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L107" t="s">
         <v>259</v>
@@ -4792,7 +4874,7 @@
         <v>261</v>
       </c>
       <c r="K108" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L108" t="s">
         <v>259</v>
@@ -4825,7 +4907,7 @@
         <v>261</v>
       </c>
       <c r="K109" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L109" t="s">
         <v>259</v>
@@ -4858,7 +4940,7 @@
         <v>261</v>
       </c>
       <c r="K110" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L110" t="s">
         <v>259</v>
@@ -4891,7 +4973,7 @@
         <v>261</v>
       </c>
       <c r="K111" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L111" t="s">
         <v>259</v>
@@ -4924,7 +5006,7 @@
         <v>261</v>
       </c>
       <c r="K112" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L112" t="s">
         <v>259</v>
@@ -4957,7 +5039,7 @@
         <v>261</v>
       </c>
       <c r="K113" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L113" t="s">
         <v>259</v>
@@ -4990,7 +5072,7 @@
         <v>261</v>
       </c>
       <c r="K114" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L114" t="s">
         <v>259</v>
@@ -5023,7 +5105,7 @@
         <v>261</v>
       </c>
       <c r="K115" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L115" t="s">
         <v>259</v>
@@ -5056,7 +5138,7 @@
         <v>261</v>
       </c>
       <c r="K116" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L116" t="s">
         <v>259</v>
@@ -5089,7 +5171,7 @@
         <v>261</v>
       </c>
       <c r="K117" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L117" t="s">
         <v>259</v>
@@ -5122,7 +5204,7 @@
         <v>261</v>
       </c>
       <c r="K118" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L118" t="s">
         <v>259</v>
@@ -5155,7 +5237,7 @@
         <v>261</v>
       </c>
       <c r="K119" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L119" t="s">
         <v>259</v>
@@ -5188,7 +5270,7 @@
         <v>261</v>
       </c>
       <c r="K120" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L120" t="s">
         <v>259</v>
@@ -5221,7 +5303,7 @@
         <v>261</v>
       </c>
       <c r="K121" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L121" t="s">
         <v>259</v>
@@ -5254,7 +5336,7 @@
         <v>261</v>
       </c>
       <c r="K122" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L122" t="s">
         <v>259</v>
@@ -5287,7 +5369,7 @@
         <v>261</v>
       </c>
       <c r="K123" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L123" t="s">
         <v>259</v>
@@ -5320,7 +5402,7 @@
         <v>261</v>
       </c>
       <c r="K124" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L124" t="s">
         <v>259</v>
@@ -5353,7 +5435,7 @@
         <v>261</v>
       </c>
       <c r="K125" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L125" t="s">
         <v>259</v>
@@ -5386,7 +5468,7 @@
         <v>261</v>
       </c>
       <c r="K126" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L126" t="s">
         <v>259</v>
@@ -5419,7 +5501,7 @@
         <v>261</v>
       </c>
       <c r="K127" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L127" t="s">
         <v>259</v>
@@ -5452,7 +5534,7 @@
         <v>261</v>
       </c>
       <c r="K128" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L128" t="s">
         <v>259</v>
@@ -5485,7 +5567,7 @@
         <v>261</v>
       </c>
       <c r="K129" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L129" t="s">
         <v>259</v>
@@ -5518,7 +5600,7 @@
         <v>261</v>
       </c>
       <c r="K130" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L130" t="s">
         <v>259</v>
@@ -5551,7 +5633,7 @@
         <v>261</v>
       </c>
       <c r="K131" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L131" t="s">
         <v>259</v>
@@ -5584,7 +5666,7 @@
         <v>261</v>
       </c>
       <c r="K132" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L132" t="s">
         <v>259</v>
@@ -5617,7 +5699,7 @@
         <v>261</v>
       </c>
       <c r="K133" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L133" t="s">
         <v>259</v>
@@ -5650,7 +5732,7 @@
         <v>261</v>
       </c>
       <c r="K134" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L134" t="s">
         <v>259</v>
@@ -5683,7 +5765,7 @@
         <v>261</v>
       </c>
       <c r="K135" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L135" t="s">
         <v>259</v>
@@ -5716,7 +5798,7 @@
         <v>261</v>
       </c>
       <c r="K136" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L136" t="s">
         <v>259</v>
@@ -5749,7 +5831,7 @@
         <v>261</v>
       </c>
       <c r="K137" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L137" t="s">
         <v>259</v>
@@ -5782,7 +5864,7 @@
         <v>261</v>
       </c>
       <c r="K138" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L138" t="s">
         <v>259</v>
@@ -5815,7 +5897,7 @@
         <v>261</v>
       </c>
       <c r="K139" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L139" t="s">
         <v>259</v>
@@ -5848,7 +5930,7 @@
         <v>261</v>
       </c>
       <c r="K140" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L140" t="s">
         <v>259</v>
@@ -5881,7 +5963,7 @@
         <v>261</v>
       </c>
       <c r="K141" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L141" t="s">
         <v>259</v>
@@ -5914,7 +5996,7 @@
         <v>261</v>
       </c>
       <c r="K142" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L142" t="s">
         <v>259</v>
@@ -5947,7 +6029,7 @@
         <v>261</v>
       </c>
       <c r="K143" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L143" t="s">
         <v>259</v>
@@ -5980,7 +6062,7 @@
         <v>261</v>
       </c>
       <c r="K144" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L144" t="s">
         <v>259</v>
@@ -6013,7 +6095,7 @@
         <v>261</v>
       </c>
       <c r="K145" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L145" t="s">
         <v>259</v>
@@ -6046,7 +6128,7 @@
         <v>261</v>
       </c>
       <c r="K146" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L146" t="s">
         <v>259</v>
@@ -6079,7 +6161,7 @@
         <v>261</v>
       </c>
       <c r="K147" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L147" t="s">
         <v>259</v>
@@ -6103,7 +6185,7 @@
         <v>258</v>
       </c>
       <c r="G148" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H148" t="s">
         <v>260</v>
@@ -6112,7 +6194,7 @@
         <v>261</v>
       </c>
       <c r="K148" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L148" t="s">
         <v>259</v>
@@ -6136,7 +6218,7 @@
         <v>258</v>
       </c>
       <c r="G149" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H149" t="s">
         <v>260</v>
@@ -6145,7 +6227,7 @@
         <v>261</v>
       </c>
       <c r="K149" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L149" t="s">
         <v>259</v>
@@ -6169,7 +6251,7 @@
         <v>258</v>
       </c>
       <c r="G150" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H150" t="s">
         <v>260</v>
@@ -6178,7 +6260,7 @@
         <v>261</v>
       </c>
       <c r="K150" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L150" t="s">
         <v>259</v>
@@ -6202,7 +6284,7 @@
         <v>258</v>
       </c>
       <c r="G151" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H151" t="s">
         <v>260</v>
@@ -6211,7 +6293,7 @@
         <v>261</v>
       </c>
       <c r="K151" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L151" t="s">
         <v>259</v>
@@ -6235,7 +6317,7 @@
         <v>258</v>
       </c>
       <c r="G152" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H152" t="s">
         <v>260</v>
@@ -6244,7 +6326,7 @@
         <v>261</v>
       </c>
       <c r="K152" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L152" t="s">
         <v>259</v>
@@ -6268,7 +6350,7 @@
         <v>258</v>
       </c>
       <c r="G153" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H153" t="s">
         <v>260</v>
@@ -6277,7 +6359,7 @@
         <v>261</v>
       </c>
       <c r="K153" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L153" t="s">
         <v>259</v>
@@ -6301,7 +6383,7 @@
         <v>258</v>
       </c>
       <c r="G154" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H154" t="s">
         <v>260</v>
@@ -6310,7 +6392,7 @@
         <v>261</v>
       </c>
       <c r="K154" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L154" t="s">
         <v>259</v>
@@ -6334,7 +6416,7 @@
         <v>258</v>
       </c>
       <c r="G155" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H155" t="s">
         <v>260</v>
@@ -6343,7 +6425,7 @@
         <v>261</v>
       </c>
       <c r="K155" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L155" t="s">
         <v>259</v>
@@ -6367,7 +6449,7 @@
         <v>258</v>
       </c>
       <c r="G156" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H156" t="s">
         <v>260</v>
@@ -6376,7 +6458,7 @@
         <v>261</v>
       </c>
       <c r="K156" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L156" t="s">
         <v>259</v>
@@ -6400,7 +6482,7 @@
         <v>258</v>
       </c>
       <c r="G157" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H157" t="s">
         <v>260</v>
@@ -6409,7 +6491,7 @@
         <v>261</v>
       </c>
       <c r="K157" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L157" t="s">
         <v>259</v>
@@ -6433,7 +6515,7 @@
         <v>258</v>
       </c>
       <c r="G158" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H158" t="s">
         <v>260</v>
@@ -6442,7 +6524,7 @@
         <v>261</v>
       </c>
       <c r="K158" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L158" t="s">
         <v>259</v>
@@ -6466,7 +6548,7 @@
         <v>258</v>
       </c>
       <c r="G159" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H159" t="s">
         <v>260</v>
@@ -6475,7 +6557,7 @@
         <v>261</v>
       </c>
       <c r="K159" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L159" t="s">
         <v>259</v>
@@ -6499,7 +6581,7 @@
         <v>258</v>
       </c>
       <c r="G160" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H160" t="s">
         <v>260</v>
@@ -6508,7 +6590,7 @@
         <v>261</v>
       </c>
       <c r="K160" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L160" t="s">
         <v>259</v>
@@ -6541,7 +6623,7 @@
         <v>261</v>
       </c>
       <c r="K161" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L161" t="s">
         <v>259</v>
@@ -6574,7 +6656,7 @@
         <v>261</v>
       </c>
       <c r="K162" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L162" t="s">
         <v>259</v>
@@ -6607,7 +6689,7 @@
         <v>261</v>
       </c>
       <c r="K163" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L163" t="s">
         <v>259</v>
@@ -6640,7 +6722,7 @@
         <v>261</v>
       </c>
       <c r="K164" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L164" t="s">
         <v>259</v>
@@ -6673,7 +6755,7 @@
         <v>261</v>
       </c>
       <c r="K165" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L165" t="s">
         <v>259</v>
@@ -6697,7 +6779,7 @@
         <v>258</v>
       </c>
       <c r="G166" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H166" t="s">
         <v>260</v>
@@ -6706,7 +6788,7 @@
         <v>261</v>
       </c>
       <c r="K166" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L166" t="s">
         <v>259</v>
@@ -6739,7 +6821,7 @@
         <v>261</v>
       </c>
       <c r="K167" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L167" t="s">
         <v>259</v>
@@ -6772,7 +6854,7 @@
         <v>261</v>
       </c>
       <c r="K168" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L168" t="s">
         <v>259</v>
@@ -6805,7 +6887,7 @@
         <v>261</v>
       </c>
       <c r="K169" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L169" t="s">
         <v>259</v>
@@ -6838,7 +6920,7 @@
         <v>261</v>
       </c>
       <c r="K170" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L170" t="s">
         <v>259</v>
@@ -6871,7 +6953,7 @@
         <v>261</v>
       </c>
       <c r="K171" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L171" t="s">
         <v>259</v>
@@ -6904,7 +6986,7 @@
         <v>261</v>
       </c>
       <c r="K172" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L172" t="s">
         <v>259</v>
@@ -6928,7 +7010,7 @@
         <v>258</v>
       </c>
       <c r="G173" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H173" t="s">
         <v>260</v>
@@ -6937,7 +7019,7 @@
         <v>261</v>
       </c>
       <c r="K173" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L173" t="s">
         <v>259</v>
@@ -6961,7 +7043,7 @@
         <v>258</v>
       </c>
       <c r="G174" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H174" t="s">
         <v>260</v>
@@ -6970,7 +7052,7 @@
         <v>261</v>
       </c>
       <c r="K174" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L174" t="s">
         <v>259</v>
@@ -6994,7 +7076,7 @@
         <v>258</v>
       </c>
       <c r="G175" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H175" t="s">
         <v>260</v>
@@ -7003,7 +7085,7 @@
         <v>261</v>
       </c>
       <c r="K175" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L175" t="s">
         <v>259</v>
@@ -7027,7 +7109,7 @@
         <v>258</v>
       </c>
       <c r="G176" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H176" t="s">
         <v>260</v>
@@ -7036,7 +7118,7 @@
         <v>261</v>
       </c>
       <c r="K176" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L176" t="s">
         <v>259</v>
@@ -7060,7 +7142,7 @@
         <v>258</v>
       </c>
       <c r="G177" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H177" t="s">
         <v>260</v>
@@ -7069,7 +7151,7 @@
         <v>261</v>
       </c>
       <c r="K177" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L177" t="s">
         <v>259</v>
@@ -7093,7 +7175,7 @@
         <v>258</v>
       </c>
       <c r="G178" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H178" t="s">
         <v>260</v>
@@ -7102,7 +7184,7 @@
         <v>261</v>
       </c>
       <c r="K178" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L178" t="s">
         <v>259</v>
@@ -7126,7 +7208,7 @@
         <v>258</v>
       </c>
       <c r="G179" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H179" t="s">
         <v>260</v>
@@ -7135,7 +7217,7 @@
         <v>261</v>
       </c>
       <c r="K179" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L179" t="s">
         <v>259</v>
@@ -7168,7 +7250,7 @@
         <v>261</v>
       </c>
       <c r="K180" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L180" t="s">
         <v>259</v>
@@ -7201,7 +7283,7 @@
         <v>261</v>
       </c>
       <c r="K181" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L181" t="s">
         <v>259</v>
@@ -7234,7 +7316,7 @@
         <v>261</v>
       </c>
       <c r="K182" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L182" t="s">
         <v>259</v>
@@ -7267,7 +7349,7 @@
         <v>261</v>
       </c>
       <c r="K183" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L183" t="s">
         <v>259</v>
@@ -7300,7 +7382,7 @@
         <v>261</v>
       </c>
       <c r="K184" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L184" t="s">
         <v>259</v>
@@ -7333,7 +7415,7 @@
         <v>261</v>
       </c>
       <c r="K185" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L185" t="s">
         <v>259</v>
@@ -7357,7 +7439,7 @@
         <v>258</v>
       </c>
       <c r="G186" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H186" t="s">
         <v>260</v>
@@ -7366,7 +7448,7 @@
         <v>261</v>
       </c>
       <c r="K186" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L186" t="s">
         <v>259</v>
@@ -7399,7 +7481,7 @@
         <v>261</v>
       </c>
       <c r="K187" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L187" t="s">
         <v>259</v>
@@ -7432,7 +7514,7 @@
         <v>261</v>
       </c>
       <c r="K188" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L188" t="s">
         <v>259</v>
@@ -7456,7 +7538,7 @@
         <v>258</v>
       </c>
       <c r="G189" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H189" t="s">
         <v>260</v>
@@ -7465,7 +7547,7 @@
         <v>261</v>
       </c>
       <c r="K189" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L189" t="s">
         <v>259</v>
@@ -7498,7 +7580,7 @@
         <v>261</v>
       </c>
       <c r="K190" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L190" t="s">
         <v>259</v>
@@ -7531,7 +7613,7 @@
         <v>261</v>
       </c>
       <c r="K191" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L191" t="s">
         <v>259</v>
@@ -7552,22 +7634,25 @@
         <v>257</v>
       </c>
       <c r="F192" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G192" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H192" t="s">
         <v>260</v>
       </c>
       <c r="I192" t="s">
-        <v>261</v>
+        <v>277</v>
+      </c>
+      <c r="J192" t="s">
+        <v>277</v>
       </c>
       <c r="K192" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L192" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M192" t="s">
         <v>265</v>
@@ -7592,7 +7677,7 @@
         <v>260</v>
       </c>
       <c r="K193" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L193" t="s">
         <v>259</v>
@@ -7620,7 +7705,7 @@
         <v>260</v>
       </c>
       <c r="K194" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L194" t="s">
         <v>259</v>
@@ -7648,7 +7733,7 @@
         <v>260</v>
       </c>
       <c r="K195" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L195" t="s">
         <v>259</v>
@@ -7676,7 +7761,7 @@
         <v>260</v>
       </c>
       <c r="K196" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L196" t="s">
         <v>259</v>
@@ -7704,7 +7789,7 @@
         <v>260</v>
       </c>
       <c r="K197" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L197" t="s">
         <v>259</v>
@@ -7732,7 +7817,7 @@
         <v>260</v>
       </c>
       <c r="K198" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L198" t="s">
         <v>259</v>
@@ -7760,7 +7845,7 @@
         <v>260</v>
       </c>
       <c r="K199" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L199" t="s">
         <v>259</v>
@@ -7788,7 +7873,7 @@
         <v>260</v>
       </c>
       <c r="K200" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L200" t="s">
         <v>259</v>
@@ -7816,7 +7901,7 @@
         <v>260</v>
       </c>
       <c r="K201" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L201" t="s">
         <v>259</v>
@@ -7844,7 +7929,7 @@
         <v>260</v>
       </c>
       <c r="K202" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L202" t="s">
         <v>259</v>
@@ -7872,7 +7957,7 @@
         <v>260</v>
       </c>
       <c r="K203" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L203" t="s">
         <v>259</v>
@@ -7900,7 +7985,7 @@
         <v>260</v>
       </c>
       <c r="K204" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L204" t="s">
         <v>259</v>
@@ -7928,7 +8013,7 @@
         <v>260</v>
       </c>
       <c r="K205" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L205" t="s">
         <v>259</v>
@@ -7956,7 +8041,7 @@
         <v>260</v>
       </c>
       <c r="K206" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L206" t="s">
         <v>259</v>
@@ -7980,7 +8065,7 @@
         <v>258</v>
       </c>
       <c r="G207" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H207" t="s">
         <v>260</v>
@@ -7989,7 +8074,7 @@
         <v>262</v>
       </c>
       <c r="K207" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L207" t="s">
         <v>259</v>
@@ -8013,7 +8098,7 @@
         <v>258</v>
       </c>
       <c r="G208" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H208" t="s">
         <v>260</v>
@@ -8022,7 +8107,7 @@
         <v>262</v>
       </c>
       <c r="K208" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L208" t="s">
         <v>259</v>
@@ -8055,7 +8140,7 @@
         <v>262</v>
       </c>
       <c r="K209" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L209" t="s">
         <v>266</v>
@@ -8079,7 +8164,7 @@
         <v>258</v>
       </c>
       <c r="G210" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H210" t="s">
         <v>260</v>
@@ -8088,7 +8173,7 @@
         <v>262</v>
       </c>
       <c r="K210" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L210" t="s">
         <v>266</v>
@@ -8112,7 +8197,7 @@
         <v>258</v>
       </c>
       <c r="G211" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H211" t="s">
         <v>260</v>
@@ -8121,7 +8206,7 @@
         <v>262</v>
       </c>
       <c r="K211" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L211" t="s">
         <v>259</v>
@@ -8145,7 +8230,7 @@
         <v>258</v>
       </c>
       <c r="G212" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H212" t="s">
         <v>260</v>
@@ -8154,7 +8239,7 @@
         <v>262</v>
       </c>
       <c r="K212" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L212" t="s">
         <v>259</v>
@@ -8178,7 +8263,7 @@
         <v>258</v>
       </c>
       <c r="G213" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H213" t="s">
         <v>260</v>
@@ -8187,7 +8272,7 @@
         <v>262</v>
       </c>
       <c r="K213" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L213" t="s">
         <v>259</v>
@@ -8211,7 +8296,7 @@
         <v>258</v>
       </c>
       <c r="G214" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H214" t="s">
         <v>260</v>
@@ -8220,7 +8305,7 @@
         <v>262</v>
       </c>
       <c r="K214" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L214" t="s">
         <v>259</v>
@@ -8244,7 +8329,7 @@
         <v>258</v>
       </c>
       <c r="G215" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H215" t="s">
         <v>260</v>
@@ -8253,7 +8338,7 @@
         <v>262</v>
       </c>
       <c r="K215" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L215" t="s">
         <v>259</v>
@@ -8277,7 +8362,7 @@
         <v>258</v>
       </c>
       <c r="G216" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H216" t="s">
         <v>260</v>
@@ -8286,7 +8371,7 @@
         <v>262</v>
       </c>
       <c r="K216" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L216" t="s">
         <v>259</v>
@@ -8310,7 +8395,7 @@
         <v>258</v>
       </c>
       <c r="G217" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H217" t="s">
         <v>260</v>
@@ -8319,7 +8404,7 @@
         <v>262</v>
       </c>
       <c r="K217" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L217" t="s">
         <v>259</v>
@@ -8343,7 +8428,7 @@
         <v>258</v>
       </c>
       <c r="G218" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H218" t="s">
         <v>260</v>
@@ -8352,7 +8437,7 @@
         <v>262</v>
       </c>
       <c r="K218" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L218" t="s">
         <v>259</v>
@@ -8376,7 +8461,7 @@
         <v>258</v>
       </c>
       <c r="G219" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H219" t="s">
         <v>260</v>
@@ -8385,7 +8470,7 @@
         <v>262</v>
       </c>
       <c r="K219" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L219" t="s">
         <v>259</v>
@@ -8409,7 +8494,7 @@
         <v>258</v>
       </c>
       <c r="G220" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H220" t="s">
         <v>260</v>
@@ -8418,7 +8503,7 @@
         <v>262</v>
       </c>
       <c r="K220" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L220" t="s">
         <v>259</v>
@@ -8442,7 +8527,7 @@
         <v>258</v>
       </c>
       <c r="G221" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H221" t="s">
         <v>260</v>
@@ -8451,7 +8536,7 @@
         <v>262</v>
       </c>
       <c r="K221" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L221" t="s">
         <v>259</v>
@@ -8475,7 +8560,7 @@
         <v>258</v>
       </c>
       <c r="G222" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H222" t="s">
         <v>260</v>
@@ -8484,7 +8569,7 @@
         <v>262</v>
       </c>
       <c r="K222" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L222" t="s">
         <v>259</v>
@@ -8508,7 +8593,7 @@
         <v>258</v>
       </c>
       <c r="G223" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H223" t="s">
         <v>260</v>
@@ -8517,7 +8602,7 @@
         <v>262</v>
       </c>
       <c r="K223" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L223" t="s">
         <v>259</v>
@@ -8541,7 +8626,7 @@
         <v>258</v>
       </c>
       <c r="G224" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H224" t="s">
         <v>260</v>
@@ -8550,7 +8635,7 @@
         <v>262</v>
       </c>
       <c r="K224" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L224" t="s">
         <v>259</v>
@@ -8574,7 +8659,7 @@
         <v>258</v>
       </c>
       <c r="G225" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H225" t="s">
         <v>260</v>
@@ -8583,7 +8668,7 @@
         <v>262</v>
       </c>
       <c r="K225" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L225" t="s">
         <v>259</v>
@@ -8607,7 +8692,7 @@
         <v>258</v>
       </c>
       <c r="G226" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H226" t="s">
         <v>260</v>
@@ -8616,7 +8701,7 @@
         <v>262</v>
       </c>
       <c r="K226" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L226" t="s">
         <v>259</v>
@@ -8640,7 +8725,7 @@
         <v>258</v>
       </c>
       <c r="G227" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H227" t="s">
         <v>260</v>
@@ -8649,7 +8734,7 @@
         <v>262</v>
       </c>
       <c r="K227" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L227" t="s">
         <v>259</v>
@@ -8673,7 +8758,7 @@
         <v>258</v>
       </c>
       <c r="G228" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H228" t="s">
         <v>260</v>
@@ -8682,7 +8767,7 @@
         <v>262</v>
       </c>
       <c r="K228" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L228" t="s">
         <v>259</v>
@@ -8706,7 +8791,7 @@
         <v>258</v>
       </c>
       <c r="G229" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H229" t="s">
         <v>260</v>
@@ -8715,7 +8800,7 @@
         <v>262</v>
       </c>
       <c r="K229" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L229" t="s">
         <v>259</v>
@@ -8748,7 +8833,7 @@
         <v>262</v>
       </c>
       <c r="K230" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L230" t="s">
         <v>266</v>
@@ -8772,7 +8857,7 @@
         <v>258</v>
       </c>
       <c r="G231" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H231" t="s">
         <v>260</v>
@@ -8781,7 +8866,7 @@
         <v>262</v>
       </c>
       <c r="K231" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L231" t="s">
         <v>259</v>
@@ -8814,7 +8899,7 @@
         <v>262</v>
       </c>
       <c r="K232" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L232" t="s">
         <v>266</v>
@@ -8838,7 +8923,7 @@
         <v>258</v>
       </c>
       <c r="G233" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H233" t="s">
         <v>260</v>
@@ -8847,7 +8932,7 @@
         <v>262</v>
       </c>
       <c r="K233" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L233" t="s">
         <v>259</v>
@@ -8871,7 +8956,7 @@
         <v>258</v>
       </c>
       <c r="G234" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H234" t="s">
         <v>260</v>
@@ -8880,7 +8965,7 @@
         <v>262</v>
       </c>
       <c r="K234" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L234" t="s">
         <v>259</v>
@@ -8904,7 +8989,7 @@
         <v>258</v>
       </c>
       <c r="G235" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H235" t="s">
         <v>260</v>
@@ -8913,7 +8998,7 @@
         <v>262</v>
       </c>
       <c r="K235" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L235" t="s">
         <v>259</v>
@@ -8937,7 +9022,7 @@
         <v>258</v>
       </c>
       <c r="G236" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H236" t="s">
         <v>260</v>
@@ -8946,7 +9031,7 @@
         <v>262</v>
       </c>
       <c r="K236" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L236" t="s">
         <v>259</v>
@@ -8957,5 +9042,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>